--- a/LuBan/Config/Datas/LevelConfig.xlsx
+++ b/LuBan/Config/Datas/LevelConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>##</t>
   </si>
@@ -24,22 +24,40 @@
     <t>untID</t>
   </si>
   <si>
+    <t>LevelName</t>
+  </si>
+  <si>
+    <t>LevelJumpSceneName</t>
+  </si>
+  <si>
     <t>LevelDatas</t>
   </si>
   <si>
     <t>##type</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
     <t>Data.LevelData</t>
   </si>
   <si>
+    <t>关卡ID</t>
+  </si>
+  <si>
     <t>关卡名字</t>
   </si>
   <si>
+    <t>跳转关卡名字</t>
+  </si>
+  <si>
     <t>关卡数据</t>
+  </si>
+  <si>
+    <t>关卡一</t>
   </si>
   <si>
     <t>Level1</t>
@@ -688,10 +706,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1047,15 +1065,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="40.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1065,61 +1083,78 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" ht="27" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" t="s">
-        <v>8</v>
+    <row r="4" spans="2:7">
+      <c r="B4">
+        <v>1001</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
         <v>1000</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
+      <c r="G4" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
